--- a/July'21/17.07.2021/Daily Sales Info_1626456684.xlsx
+++ b/July'21/17.07.2021/Daily Sales Info_1626456684.xlsx
@@ -24993,7 +24993,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="A15:XFD15"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26878,7 +26878,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28494,9 +28494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
